--- a/power_comp_1_row_20_10_col_2.xlsx
+++ b/power_comp_1_row_20_10_col_2.xlsx
@@ -65,19 +65,19 @@
     <t xml:space="preserve">&lt; -0.0533</t>
   </si>
   <si>
-    <t xml:space="preserve">&lt; -0.0899</t>
-  </si>
-  <si>
-    <t xml:space="preserve">&lt; -0.0894</t>
-  </si>
-  <si>
-    <t xml:space="preserve">&lt; -0.0798</t>
-  </si>
-  <si>
-    <t xml:space="preserve">&lt; -0.0803</t>
-  </si>
-  <si>
-    <t xml:space="preserve">&lt; -0.0889</t>
+    <t xml:space="preserve">&lt; -0.0898</t>
+  </si>
+  <si>
+    <t xml:space="preserve">&lt; -0.0893</t>
+  </si>
+  <si>
+    <t xml:space="preserve">&lt; -0.0797</t>
+  </si>
+  <si>
+    <t xml:space="preserve">&lt; -0.0802</t>
+  </si>
+  <si>
+    <t xml:space="preserve">&lt; -0.0888</t>
   </si>
   <si>
     <t xml:space="preserve">&lt; -0.0884</t>
@@ -89,73 +89,73 @@
     <t xml:space="preserve">&lt; -0.036</t>
   </si>
   <si>
-    <t xml:space="preserve">&lt; -0.0265</t>
+    <t xml:space="preserve">&lt; -0.0264</t>
   </si>
   <si>
     <t xml:space="preserve">&lt; -0.0269</t>
   </si>
   <si>
-    <t xml:space="preserve">0.0871 -0.0356</t>
+    <t xml:space="preserve">0.0879 -0.0355</t>
   </si>
   <si>
     <t xml:space="preserve">&lt; -0.0351</t>
   </si>
   <si>
-    <t xml:space="preserve">0.3643 5e-04</t>
+    <t xml:space="preserve">0.3612 5e-04</t>
   </si>
   <si>
     <t xml:space="preserve">=</t>
   </si>
   <si>
-    <t xml:space="preserve">0.5458 0.0101</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.6267 0.0096</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.2557 0.001</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.4517 0.0014</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.6157 -5e-04</t>
+    <t xml:space="preserve">0.5444 0.0101</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.6255 0.0096</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.2554 0.001</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.4527 0.0014</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.6188 -5e-04</t>
   </si>
   <si>
     <t xml:space="preserve">0.9802 0.0096</t>
   </si>
   <si>
-    <t xml:space="preserve">0.7871 0.0091</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.4888 5e-04</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.2098 9e-04</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.6102 -5e-04</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.3509 -0.0091</t>
-  </si>
-  <si>
-    <t xml:space="preserve">&lt; -0.0087</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.3696 5e-04</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.2559 -0.0086</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.1965 -0.0082</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.5302 5e-04</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.4498 -5e-04</t>
+    <t xml:space="preserve">0.7877 0.0091</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.4909 5e-04</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.2083 9e-04</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.6139 -5e-04</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.3545 -0.0091</t>
+  </si>
+  <si>
+    <t xml:space="preserve">&lt; -0.0086</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.3659 5e-04</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.2584 -0.0086</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.1984 -0.0082</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.5285 4e-04</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.4515 -4e-04</t>
   </si>
 </sst>
 </file>
